--- a/Results/Critical Beta Histograms.xlsx
+++ b/Results/Critical Beta Histograms.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2D Metro data" sheetId="1" r:id="rId1"/>
     <sheet name="2D WL data" sheetId="2" r:id="rId2"/>
-    <sheet name="2D Metro Chart" sheetId="4" r:id="rId3"/>
-    <sheet name="2D WL Chart" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="2D WL data (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="2D Metro Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="2D WL Chart" sheetId="5" r:id="rId5"/>
+    <sheet name="2D WL Chart (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Sample</t>
   </si>
@@ -37,12 +39,33 @@
   <si>
     <t>s.d. / mean</t>
   </si>
+  <si>
+    <t>runsteps</t>
+  </si>
+  <si>
+    <t>referencesteps</t>
+  </si>
+  <si>
+    <t>reference level</t>
+  </si>
+  <si>
+    <t>flatness</t>
+  </si>
+  <si>
+    <t>ln_f_initial</t>
+  </si>
+  <si>
+    <t>ln_f_final</t>
+  </si>
+  <si>
+    <t>iteration limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +76,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,10 +118,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +157,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30543933054393307"/>
+          <c:x val="0.30543933054393302"/>
           <c:y val="2.0878553073528511E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1369,11 +1400,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74120576"/>
-        <c:axId val="76519296"/>
+        <c:axId val="59677312"/>
+        <c:axId val="91284608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74120576"/>
+        <c:axId val="59677312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,14 +1429,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76519296"/>
+        <c:crossAx val="91284608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76519296"/>
+        <c:axId val="91284608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1432,7 +1463,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74120576"/>
+        <c:crossAx val="59677312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2702,11 +2733,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76536448"/>
-        <c:axId val="80401152"/>
+        <c:axId val="91780224"/>
+        <c:axId val="91782144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76536448"/>
+        <c:axId val="91780224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,14 +2762,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80401152"/>
+        <c:crossAx val="91782144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80401152"/>
+        <c:axId val="91782144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2795,1340 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76536448"/>
+        <c:crossAx val="91780224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:style val="4"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram of critical beta - Wang Landau</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D WL data (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2D WL data (2)'!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41020099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41040199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.410603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.410804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41100500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41120600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41140700000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41160799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41180899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41200999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41221099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.412412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41261300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41281400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41301500000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41321600000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41341699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41361799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41381899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.41402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41422100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41442200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41462300000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41482400000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.41502499999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41522599999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41542699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.415628</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.415829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41603000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.41623100000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41643200000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41663299999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41683399999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41703499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.417236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.417437</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.41763800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41783900000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41824099999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41844199999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.41864299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41884399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.419045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41924600000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.41944700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.41964800000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.41984900000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.42004999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.42025099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42045199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.420653</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42085400000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42105500000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42125600000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42145700000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.42165799999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42185899999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42205999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.422261</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.422462</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.42266300000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42286400000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42306500000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.42326599999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42346699999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42366799999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.423869</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42407</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42427100000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.42447200000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.42467300000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.42487399999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42507499999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.42527599999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.42547699999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.425678</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.42587900000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.42608000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42628100000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.42648200000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.42668299999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42688399999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42708499999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.427286</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42748700000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.42768800000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.42788900000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.42809000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.42829099999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42849199999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.42869299999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.428894</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.429095</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.42929600000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42949700000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.42969800000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.42989899999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43010100000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.43030200000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.43050300000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.43070399999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.43090499999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.43110599999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.431307</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.431508</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.43170900000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.43191000000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.43211100000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.43231199999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.43251299999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.43271399999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.43291499999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.433116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.43331700000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.43351800000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.43371900000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.43391999999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.43412099999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.43432199999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.43452299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.434724</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.43492500000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.43512600000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.43532700000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.43552800000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.43572899999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.43592999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.43613099999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.436332</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.436533</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.43673400000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.43693500000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.43713600000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.43733699999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.43753799999999998</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.43773899999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.43794</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.438141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.43834200000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.43854300000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.43874400000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.43894499999999997</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.43914599999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.43934699999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.43954799999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.439749</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.43995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.44015100000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.44035200000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.44055299999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.44075399999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.44095499999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.44115599999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.441357</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.44155800000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.44175900000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.44196000000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.44216100000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.44236199999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.44256299999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.44276399999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.442965</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.443166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.44336700000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.44356800000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.44376900000000002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.44396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.44417099999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.44437199999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.444573</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.444774</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.44497500000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.44517600000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.44537700000000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.44557799999999997</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.44577899999999998</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.44597999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.44618099999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.446382</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.44658300000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.44678400000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.44698500000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.44718599999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.44738699999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.44758799999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.44778899999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.44799</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.44819100000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.44839200000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.44859300000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.44879400000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.44899499999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.44919599999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.44939699999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.449598</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.449799</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2D WL data (2)'!$C$2:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="62896768"/>
+        <c:axId val="62903040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62896768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thermodynamic beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62903040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62903040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62896768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2776,7 +4140,7 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart2"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
@@ -2787,7 +4151,18 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart3"/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Chart4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
@@ -2824,6 +4199,33 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308094" cy="6082797"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3135,6 +4537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6999,10 +8402,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7169,6 +8573,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>100000</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -7188,6 +8598,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -7207,6 +8623,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -7226,6 +8648,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -7245,6 +8673,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -7264,6 +8698,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -7282,6 +8722,12 @@
       <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10863,6 +12309,3914 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:J201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <f>SUM(C2:C999)</f>
+        <v>10000</v>
+      </c>
+      <c r="F1" s="1">
+        <f>SUM(F2:F999)</f>
+        <v>4315.3145719999984</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G2:G999)</f>
+        <v>1862.2275086319166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.41</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>B2*B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>F1/E1</f>
+        <v>0.43153145719999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.41020099999999998</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">B3*B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>((G1/E1)-J2*J2)^(1/2)</f>
+        <v>1.8309314668686291E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.41040199999999999</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <f>J3/J2</f>
+        <v>4.2428690569829208E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.410603</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.410804</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.41100500000000001</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.41120600000000002</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.41140700000000002</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.41160799999999997</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.41180899999999998</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.41200999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.41221099999999999</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.412412</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.41261300000000001</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.41281400000000001</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.41301500000000002</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.41321600000000003</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.41341699999999998</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.41361799999999999</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.41381899999999999</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.41402</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.41422100000000001</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.41442200000000001</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.41462300000000002</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.41482400000000003</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.41502499999999998</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.41522599999999998</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.41542699999999999</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.415628</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.415829</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.41603000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.41623100000000002</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.41643200000000002</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.41663299999999998</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.41683399999999998</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.41703499999999999</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.417236</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.417437</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.41763800000000001</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.41783900000000002</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.41804000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.41824099999999997</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.41844199999999998</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.41864299999999999</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.41884399999999999</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.419045</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.41924600000000001</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.41944700000000001</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.41964800000000002</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.41984900000000003</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.42004999999999998</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.42025099999999999</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.42045199999999999</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.420653</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.42085400000000001</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.42105500000000001</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.42125600000000002</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.42145700000000003</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.42165799999999998</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.42185899999999998</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.42205999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.422261</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.422462</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.42266300000000001</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.42286400000000002</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.42306500000000002</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="2">B67*C67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="3">B67*B67*C67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.42326599999999998</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.42346699999999998</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.42366799999999999</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.423869</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.42407</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.42427100000000001</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.42447200000000002</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.42467300000000002</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.42487399999999997</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.42507499999999998</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.42527599999999999</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0.42527599999999999</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>0.18085967617599999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.42547699999999999</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0.85095399999999999</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.36206135505799997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.425678</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0.425678</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>0.18120175968400001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.42587900000000001</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>2.1293950000000001</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>0.906864613205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.42608000000000001</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>1.7043200000000001</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0.72617666560000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.42628100000000002</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>2.5576860000000003</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>1.090292945766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.42648200000000003</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>4.6913020000000003</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>2.0007558595640003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.42668299999999998</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>6.400245</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>2.7308757373349994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.42688399999999999</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>7.6839119999999994</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>3.2801390902079999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.42708499999999999</v>
+      </c>
+      <c r="C87">
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>9.8229550000000003</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>4.1952367361749996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.427286</v>
+      </c>
+      <c r="C88">
+        <v>33</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>14.100438</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>6.0249197512679995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.42748700000000001</v>
+      </c>
+      <c r="C89">
+        <v>36</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>15.389532000000001</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>6.5788248660840001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.42768800000000001</v>
+      </c>
+      <c r="C90">
+        <v>47</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>20.101336</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>8.5971001911679998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.42788900000000002</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>21.394450000000003</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>9.1544498160500005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.42809000000000003</v>
+      </c>
+      <c r="C92">
+        <v>73</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>31.250570000000003</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>13.378056511300001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.42829099999999998</v>
+      </c>
+      <c r="C93">
+        <v>89</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>38.117899000000001</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>16.325553080608998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.42849199999999998</v>
+      </c>
+      <c r="C94">
+        <v>128</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>54.846975999999998</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>23.501490440191997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.42869299999999999</v>
+      </c>
+      <c r="C95">
+        <v>120</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>51.443159999999999</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>22.053322589879997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.428894</v>
+      </c>
+      <c r="C96">
+        <v>170</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>72.91198</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>31.271510750119997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.429095</v>
+      </c>
+      <c r="C97">
+        <v>163</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>69.942485000000005</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>30.011970601075003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.42929600000000001</v>
+      </c>
+      <c r="C98">
+        <v>220</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>94.445120000000003</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>40.544912235520002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.42949700000000002</v>
+      </c>
+      <c r="C99">
+        <v>226</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>97.066322</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>41.689694100034004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.42969800000000002</v>
+      </c>
+      <c r="C100">
+        <v>249</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>106.99480200000001</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>45.975452429796</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.42989899999999998</v>
+      </c>
+      <c r="C101">
+        <v>315</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>135.41818499999999</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>58.21614231331499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.43010100000000001</v>
+      </c>
+      <c r="C102">
+        <v>328</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>141.073128</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>60.675693425928003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.43030200000000002</v>
+      </c>
+      <c r="C103">
+        <v>362</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>155.76932400000001</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>67.027851655848011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.43050300000000002</v>
+      </c>
+      <c r="C104">
+        <v>383</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>164.88264900000001</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>70.982475042447007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.43070399999999998</v>
+      </c>
+      <c r="C105">
+        <v>383</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>164.959632</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>71.048773340927994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.43090499999999998</v>
+      </c>
+      <c r="C106">
+        <v>456</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>196.49267999999998</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>84.669678275399988</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.43110599999999999</v>
+      </c>
+      <c r="C107">
+        <v>392</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>168.99355199999999</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>72.854134228511995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.431307</v>
+      </c>
+      <c r="C108">
+        <v>451</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>194.51945699999999</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>83.897603440298994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.431508</v>
+      </c>
+      <c r="C109">
+        <v>436</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>188.13748799999999</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>81.182831171903999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.43170900000000001</v>
+      </c>
+      <c r="C110">
+        <v>460</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>198.58614</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>85.731423913260002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.43191000000000002</v>
+      </c>
+      <c r="C111">
+        <v>431</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>186.15321</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>80.401432931100004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.43211100000000002</v>
+      </c>
+      <c r="C112">
+        <v>395</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>170.68384500000002</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>73.754366946795002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.43231199999999997</v>
+      </c>
+      <c r="C113">
+        <v>404</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>174.65404799999999</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>75.505040798975998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.43251299999999998</v>
+      </c>
+      <c r="C114">
+        <v>374</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>161.759862</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>69.963243193205997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.43271399999999999</v>
+      </c>
+      <c r="C115">
+        <v>322</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>139.33390800000001</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>60.291732666311994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.43291499999999999</v>
+      </c>
+      <c r="C116">
+        <v>320</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>138.53280000000001</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>59.972927112000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.433116</v>
+      </c>
+      <c r="C117">
+        <v>309</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>133.83284399999999</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>57.965146061904001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.43331700000000001</v>
+      </c>
+      <c r="C118">
+        <v>248</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>107.462616</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>46.565378377271998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.43351800000000001</v>
+      </c>
+      <c r="C119">
+        <v>239</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>103.61080200000001</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>44.917147661436005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.43371900000000002</v>
+      </c>
+      <c r="C120">
+        <v>231</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>100.18908900000001</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>43.453911491991008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.43391999999999997</v>
+      </c>
+      <c r="C121">
+        <v>193</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>83.746559999999988</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>36.339307315199996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.43412099999999998</v>
+      </c>
+      <c r="C122">
+        <v>160</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>69.459360000000004</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>30.153766822559994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.43432199999999999</v>
+      </c>
+      <c r="C123">
+        <v>160</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>69.491519999999994</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>30.181695949439998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.43452299999999999</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>43.452300000000001</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>18.881023752899999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.434724</v>
+      </c>
+      <c r="C125">
+        <v>78</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>33.908472000000003</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>14.740826581727999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.43492500000000001</v>
+      </c>
+      <c r="C126">
+        <v>84</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>36.533700000000003</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>15.8894194725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.43512600000000001</v>
+      </c>
+      <c r="C127">
+        <v>63</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>27.412938</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>11.928082060188002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.43532700000000002</v>
+      </c>
+      <c r="C128">
+        <v>54</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>23.507657999999999</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="3"/>
+        <v>10.233518234166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.43552800000000003</v>
+      </c>
+      <c r="C129">
+        <v>44</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>19.163232000000001</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="3"/>
+        <v>8.346124106496001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.43572899999999998</v>
+      </c>
+      <c r="C130">
+        <v>35</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="2"/>
+        <v>15.250515</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="3"/>
+        <v>6.6450916504349991</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.43592999999999998</v>
+      </c>
+      <c r="C131">
+        <v>26</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="4">B131*C131</f>
+        <v>11.33418</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="5">B131*B131*C131</f>
+        <v>4.9409090873999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.43613099999999999</v>
+      </c>
+      <c r="C132">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>7.8503579999999999</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="5"/>
+        <v>3.4237844848979999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.436332</v>
+      </c>
+      <c r="C133">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>5.6723160000000004</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="5"/>
+        <v>2.4750129849119999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.436533</v>
+      </c>
+      <c r="C134">
+        <v>14</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>6.1114620000000004</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="5"/>
+        <v>2.6678548412460001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.43673400000000001</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>4.804074</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="5"/>
+        <v>2.0981024543159998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.43693500000000002</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>2.1846749999999999</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>0.95456097112500016</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.43713600000000002</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>0.87427200000000005</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="5"/>
+        <v>0.38217576499200007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.43733699999999998</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>2.1866849999999998</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="5"/>
+        <v>0.9563182578449998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.43753799999999998</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.43773899999999999</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>1.3132169999999999</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="5"/>
+        <v>0.574846296363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.43794</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>0.43794</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="5"/>
+        <v>0.1917914436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.438141</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>0.438141</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="5"/>
+        <v>0.19196753588099999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.43834200000000001</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.43854300000000002</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.43874400000000002</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.43894499999999997</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>0.43894499999999997</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="5"/>
+        <v>0.19267271302499997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.43914599999999998</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.43934699999999999</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.43954799999999999</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.439749</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.43995000000000001</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.44015100000000001</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.44035200000000002</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.44055299999999997</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.44075399999999998</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.44095499999999999</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.44115599999999999</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.441357</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.44155800000000001</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.44175900000000001</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.44196000000000002</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.44216100000000003</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.44236199999999998</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.44256299999999998</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.44276399999999999</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.442965</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.443166</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.44336700000000001</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.44356800000000002</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.44376900000000002</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.44396999999999998</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.44417099999999998</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.44437199999999999</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.444573</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.444774</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.44497500000000001</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.44517600000000002</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.44537700000000002</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.44557799999999997</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.44577899999999998</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.44597999999999999</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.44618099999999999</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.446382</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.44658300000000001</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.44678400000000001</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.44698500000000002</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.44718599999999997</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.44738699999999998</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.44758799999999999</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.44778899999999999</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.44799</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.44819100000000001</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.44839200000000001</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.44859300000000002</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.44879400000000003</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F230" si="6">B195*C195</f>
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G230" si="7">B195*B195*C195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.44899499999999998</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.44919599999999998</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.44939699999999999</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.449598</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.449799</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.45</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
